--- a/Modified Data/EEE_only_periods.xlsx
+++ b/Modified Data/EEE_only_periods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siva mani\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLSID\Mukesh\Time_Table_Management_Using_GenAI\Modified Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1002F237-59C5-4BFF-8B0A-998193ADD47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07475A39-A23A-489B-951D-ED52F343F752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BD5DB5C-2764-4EF3-9DE9-E11A660616B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BD5DB5C-2764-4EF3-9DE9-E11A660616B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="106">
   <si>
     <t>BLOCK</t>
   </si>
@@ -350,6 +349,9 @@
   </si>
   <si>
     <t>PENDING-EM-LAB</t>
+  </si>
+  <si>
+    <t>AB-2-T9</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CFEF93-1082-4F7D-B52F-A1306C4E0796}">
-  <dimension ref="A1:AU8"/>
+  <dimension ref="A1:AU9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AS7" sqref="AS7:AU8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2281,6 +2283,149 @@
         <v>63</v>
       </c>
     </row>
+    <row r="9" spans="1:47" s="107" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="2">
+        <v>60</v>
+      </c>
+      <c r="F9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="V9" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="W9" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC9" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD9" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI9" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ9" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK9" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL9" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM9" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR9" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU9" s="108" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
